--- a/biology/Zoologie/Barbican_promépic/Barbican_promépic.xlsx
+++ b/biology/Zoologie/Barbican_promépic/Barbican_promépic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbican_prom%C3%A9pic</t>
+          <t>Barbican_promépic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trachyphonus vaillantii
 Le Barbican promépic (Trachyphonus vaillantii) est une espèce d'oiseaux de la famille des Lybiidae, dont l'aire de répartition s'étend sur l'Ouganda, la Tanzanie, le Burundi, le Rwanda, la République démocratique du Congo, l'Angola, la Namibie, le Botswana, la Zambie, le Zimbabwe, le Malawi, l'Afrique du Sud, le Swaziland et le Mozambique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbican_prom%C3%A9pic</t>
+          <t>Barbican_promépic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trachyphonus vaillantii suahelicus Reichenow, 1887
 Trachyphonus vaillantii vaillantii Ranzani, 1821</t>
